--- a/Butlr_sensor_troubleshooting.xlsx
+++ b/Butlr_sensor_troubleshooting.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyuan/Documents/SIESTA-Rehab/Butlr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SIESTA\Data\Butlr\Butlr_SIESTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C29E8E-FE58-374D-A6AA-215385D27CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16200" xr2:uid="{A1247EFB-E9F7-5A47-9E35-AD580EF056EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -62,12 +61,24 @@
   </si>
   <si>
     <t xml:space="preserve">Keep investigating the abnormal data and find a pattern </t>
+  </si>
+  <si>
+    <t>duplicated timestamps in five_sec and five_min data</t>
+  </si>
+  <si>
+    <t>added in code to reduce duplication before accumulating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corrected accum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process all data </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -457,23 +468,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAE7B4B-914F-7444-8612-CF2A011DE90B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -490,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>44776</v>
       </c>
@@ -507,9 +518,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
-        <v>44777</v>
+        <v>44785</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Butlr_sensor_troubleshooting.xlsx
+++ b/Butlr_sensor_troubleshooting.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="6480" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="troubleshooting" sheetId="1" r:id="rId1"/>
+    <sheet name="results summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -73,6 +74,93 @@
   </si>
   <si>
     <t xml:space="preserve">Process all data </t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>23_100</t>
+  </si>
+  <si>
+    <t>23_101</t>
+  </si>
+  <si>
+    <t>23_102</t>
+  </si>
+  <si>
+    <t>23_103</t>
+  </si>
+  <si>
+    <t>23_104</t>
+  </si>
+  <si>
+    <t>23_106</t>
+  </si>
+  <si>
+    <t>23_111</t>
+  </si>
+  <si>
+    <t>23_117</t>
+  </si>
+  <si>
+    <t>23_118</t>
+  </si>
+  <si>
+    <t>double-checked Butlr preprocess r script, should be fine. Any issues with 'Accum' should be due to abnormal activities in 'in_sum' or 'out_sum'</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>fiv_min</t>
+  </si>
+  <si>
+    <t>in_sum &gt;10</t>
+  </si>
+  <si>
+    <t>in_sum &gt;40</t>
+  </si>
+  <si>
+    <t>in_sum_greaterthan_40_time</t>
+  </si>
+  <si>
+    <t>24_035</t>
+  </si>
+  <si>
+    <t>24_036</t>
+  </si>
+  <si>
+    <t>24_037</t>
+  </si>
+  <si>
+    <t>24_038</t>
+  </si>
+  <si>
+    <t>24_039</t>
+  </si>
+  <si>
+    <t>24_041</t>
+  </si>
+  <si>
+    <t>24_042</t>
+  </si>
+  <si>
+    <t>24_043</t>
+  </si>
+  <si>
+    <t>24_045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1: when and how often are abnormals happening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2: what is the weather that day? Does weather affect head count sensor accuracy? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3: Does specific room show such a pattern? Is the problem related to the location? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4: Is the problem related to patient? </t>
   </si>
 </sst>
 </file>
@@ -114,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -150,11 +244,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,70 +576,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>44776</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>44785</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>44788</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>44791</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E2" s="13">
+        <v>44702.896527777775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>44730.330555555556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>44776</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>44785</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Butlr_sensor_troubleshooting.xlsx
+++ b/Butlr_sensor_troubleshooting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="troubleshooting" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t xml:space="preserve">Q4: Is the problem related to patient? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All data processed and generated a summary </t>
+  </si>
+  <si>
+    <t>Processed and shown in the summary</t>
+  </si>
+  <si>
+    <t>To be analyzed</t>
   </si>
 </sst>
 </file>
@@ -578,14 +587,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="119.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.5" bestFit="1" customWidth="1"/>
@@ -657,20 +666,32 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>39</v>
       </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>40</v>
       </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -683,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
